--- a/boardgames/seafall/captains_log/captain_kyle/ship_log.xlsx
+++ b/boardgames/seafall/captains_log/captain_kyle/ship_log.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\captain_kyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/captain_kyle/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="5310"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14920" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="ship_log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -846,13 +854,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -898,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -921,7 +931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -944,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -967,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1013,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1036,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1082,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1102,6 +1112,29 @@
         <v>2</v>
       </c>
       <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
     </row>

--- a/boardgames/seafall/captains_log/captain_kyle/ship_log.xlsx
+++ b/boardgames/seafall/captains_log/captain_kyle/ship_log.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/captain_kyle/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D88B5DED-50F3-F447-90D9-5D214A90BB15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14920" windowHeight="14100"/>
+    <workbookView xWindow="6520" yWindow="6460" windowWidth="17320" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship_log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -853,11 +854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1138,6 +1139,52 @@
         <v>4</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/boardgames/seafall/captains_log/captain_kyle/ship_log.xlsx
+++ b/boardgames/seafall/captains_log/captain_kyle/ship_log.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/captain_kyle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\captain_kyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D88B5DED-50F3-F447-90D9-5D214A90BB15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="6460" windowWidth="17320" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="6465" windowWidth="17325" windowHeight="19740"/>
   </bookViews>
   <sheets>
     <sheet name="ship_log" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>game_number</t>
   </si>
@@ -50,11 +46,17 @@
   <si>
     <t>ship_B_hold</t>
   </si>
+  <si>
+    <t>ship_A_explore</t>
+  </si>
+  <si>
+    <t>ship_B_explore</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -854,16 +856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,8 +887,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -908,8 +916,14 @@
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -931,8 +945,14 @@
       <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -954,8 +974,14 @@
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -977,8 +1003,14 @@
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1000,8 +1032,14 @@
       <c r="G6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1023,8 +1061,14 @@
       <c r="G7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1046,8 +1090,14 @@
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1069,8 +1119,14 @@
       <c r="G9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1092,8 +1148,14 @@
       <c r="G10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1115,8 +1177,14 @@
       <c r="G11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1138,8 +1206,14 @@
       <c r="G12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1161,8 +1235,14 @@
       <c r="G13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1183,6 +1263,41 @@
       </c>
       <c r="G14">
         <v>6</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
